--- a/excels/datas/Shop.xlsx
+++ b/excels/datas/Shop.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -113,6 +113,75 @@
   </si>
   <si>
     <t>启用？</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Tier1</t>
+  </si>
+  <si>
+    <t>Tier1 动物刷新池（例：201,207 等）</t>
+  </si>
+  <si>
+    <t>Tier2</t>
+  </si>
+  <si>
+    <t>Tier2 动物刷新池（例：202,206 等）</t>
+  </si>
+  <si>
+    <t>Tier3</t>
+  </si>
+  <si>
+    <t>Tier3 动物刷新池（203,205,211,213）</t>
+  </si>
+  <si>
+    <t>Tier4</t>
+  </si>
+  <si>
+    <t>Tier4 动物刷新池（204,210,208）</t>
+  </si>
+  <si>
+    <t>Tier5</t>
+  </si>
+  <si>
+    <t>Tier5 动物刷新池（212,214）</t>
+  </si>
+  <si>
+    <t>Tier6</t>
+  </si>
+  <si>
+    <t>Tier6 动物刷新池（216–219）</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Tier1 食物刷新池（苹果）</t>
+  </si>
+  <si>
+    <t>Tier2 食物刷新池（肉排/洗礼）</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Tier1 装备池（蜂蜜）</t>
+  </si>
+  <si>
+    <t>Tier2 装备池（大蒜）</t>
+  </si>
+  <si>
+    <t>Tier3 装备池（辣椒）</t>
+  </si>
+  <si>
+    <t>Tier4 装备池（蜜瓜）</t>
+  </si>
+  <si>
+    <t>Tier5 装备池（蘑菇）</t>
+  </si>
+  <si>
+    <t>Tier6 装备池（椰子）</t>
   </si>
 </sst>
 </file>
@@ -728,9 +797,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1080,13 +1152,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="8.30769230769231" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="8.61538461538461" customWidth="1"/>
+    <col min="4" max="4" width="12.5384615384615" customWidth="1"/>
+    <col min="5" max="6" width="10.3076923076923" customWidth="1"/>
+    <col min="7" max="7" width="20.4615384615385" customWidth="1"/>
+    <col min="8" max="9" width="10.3076923076923" customWidth="1"/>
+    <col min="10" max="10" width="16.3076923076923" customWidth="1"/>
+    <col min="11" max="11" width="8.61538461538461" customWidth="1"/>
+    <col min="12" max="12" width="38.5384615384615" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -1192,6 +1276,508 @@
       <c r="K3" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4">
+        <v>5001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5">
+        <v>5002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6">
+        <v>5003</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7">
+        <v>5004</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8">
+        <v>5005</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9">
+        <v>5006</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0.6</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="17" spans="2:12">
+      <c r="B10" s="1">
+        <v>5101</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="2:12">
+      <c r="B11" s="1">
+        <v>5102</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="2:12">
+      <c r="B12" s="1">
+        <v>5201</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" ht="17" spans="2:12">
+      <c r="B13" s="1">
+        <v>5202</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" ht="17" spans="2:12">
+      <c r="B14" s="1">
+        <v>5203</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" ht="17" spans="2:12">
+      <c r="B15" s="1">
+        <v>5204</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="17" spans="2:12">
+      <c r="B16" s="1">
+        <v>5205</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="2:12">
+      <c r="B17" s="1">
+        <v>5206</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
